--- a/Alura/formacaoDataScience/ExcelAndVBA/ExcelProcvLogicaBooleanaEBuscaPorValores/material-LUCAS.xlsx
+++ b/Alura/formacaoDataScience/ExcelAndVBA/ExcelProcvLogicaBooleanaEBuscaPorValores/material-LUCAS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\www\studySpace\Alura\formacaoDataScience\ExcelAndVBA\ExcelProcvLogicaBooleanaEBuscaPorValores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasSilvaDantasAbra\www\studySpace\Alura\formacaoDataScience\ExcelAndVBA\ExcelProcvLogicaBooleanaEBuscaPorValores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D56186-D64B-4516-B082-DA05274B87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C897D3C-ED42-4CE1-A05C-27B25A416646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="4260" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
+    <workbookView xWindow="33210" yWindow="-2880" windowWidth="19425" windowHeight="10635" firstSheet="1" activeTab="2" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos Infantis" sheetId="1" state="hidden" r:id="rId1"/>
@@ -52,6 +52,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,7 +726,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -845,9 +867,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,10 +916,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -7785,26 +7804,26 @@
       <selection pane="bottomLeft" activeCell="E22" sqref="E3:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="18.26953125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7824,7 +7843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -7846,7 +7865,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -7868,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -7890,7 +7909,7 @@
         <v>215.45999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -7912,7 +7931,7 @@
         <v>1508.2199999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -7934,7 +7953,7 @@
         <v>861.83999999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -7956,7 +7975,7 @@
         <v>359.09999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -7978,7 +7997,7 @@
         <v>574.55999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -8000,7 +8019,7 @@
         <v>1651.86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -8022,7 +8041,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -8044,7 +8063,7 @@
         <v>1795.4999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8066,7 +8085,7 @@
         <v>143.63999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
@@ -8088,7 +8107,7 @@
         <v>599.76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
@@ -8110,7 +8129,7 @@
         <v>524.79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
@@ -8132,7 +8151,7 @@
         <v>1199.52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
@@ -8154,7 +8173,7 @@
         <v>1499.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
@@ -8176,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
@@ -8198,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
@@ -8220,7 +8239,7 @@
         <v>449.82</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
@@ -8242,7 +8261,7 @@
         <v>599.76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>13</v>
       </c>
@@ -8264,7 +8283,7 @@
         <v>1049.58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>14</v>
       </c>
@@ -8286,7 +8305,7 @@
         <v>1220.9399999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>14</v>
       </c>
@@ -8308,7 +8327,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>14</v>
       </c>
@@ -8330,7 +8349,7 @@
         <v>143.63999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>14</v>
       </c>
@@ -8352,7 +8371,7 @@
         <v>71.819999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
@@ -8374,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>14</v>
       </c>
@@ -8396,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
@@ -8418,7 +8437,7 @@
         <v>430.91999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>14</v>
       </c>
@@ -8440,7 +8459,7 @@
         <v>574.55999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>14</v>
       </c>
@@ -8462,7 +8481,7 @@
         <v>646.37999999999988</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>14</v>
       </c>
@@ -8484,7 +8503,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>14</v>
       </c>
@@ -8506,7 +8525,7 @@
         <v>1292.7599999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>14</v>
       </c>
@@ -8528,7 +8547,7 @@
         <v>1349.46</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>14</v>
       </c>
@@ -8550,7 +8569,7 @@
         <v>149.94</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>14</v>
       </c>
@@ -8572,7 +8591,7 @@
         <v>224.91</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>14</v>
       </c>
@@ -8594,7 +8613,7 @@
         <v>449.82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>14</v>
       </c>
@@ -8616,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>14</v>
       </c>
@@ -8638,7 +8657,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>14</v>
       </c>
@@ -8660,7 +8679,7 @@
         <v>1424.43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>14</v>
       </c>
@@ -8682,7 +8701,7 @@
         <v>1949.22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>14</v>
       </c>
@@ -8704,7 +8723,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
         <v>12</v>
       </c>
@@ -8726,7 +8745,7 @@
         <v>1795.4999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
         <v>12</v>
       </c>
@@ -8748,7 +8767,7 @@
         <v>143.63999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
         <v>12</v>
       </c>
@@ -8770,7 +8789,7 @@
         <v>215.45999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
         <v>12</v>
       </c>
@@ -8792,7 +8811,7 @@
         <v>71.819999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>12</v>
       </c>
@@ -8814,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
         <v>12</v>
       </c>
@@ -8836,7 +8855,7 @@
         <v>359.09999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
         <v>12</v>
       </c>
@@ -8858,7 +8877,7 @@
         <v>1149.1199999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
         <v>12</v>
       </c>
@@ -8880,7 +8899,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
         <v>12</v>
       </c>
@@ -8902,7 +8921,7 @@
         <v>1149.1199999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>12</v>
       </c>
@@ -8924,7 +8943,7 @@
         <v>1005.4799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
         <v>12</v>
       </c>
@@ -8946,7 +8965,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="24" t="s">
         <v>12</v>
       </c>
@@ -8968,7 +8987,7 @@
         <v>2174.13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="24" t="s">
         <v>12</v>
       </c>
@@ -8990,7 +9009,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>12</v>
       </c>
@@ -9012,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>12</v>
       </c>
@@ -9034,7 +9053,7 @@
         <v>299.88</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
         <v>12</v>
       </c>
@@ -9056,7 +9075,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>12</v>
       </c>
@@ -9078,7 +9097,7 @@
         <v>1124.55</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>12</v>
       </c>
@@ -9100,7 +9119,7 @@
         <v>1199.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>12</v>
       </c>
@@ -9122,7 +9141,7 @@
         <v>149.94</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="24" t="s">
         <v>12</v>
       </c>
@@ -9144,7 +9163,7 @@
         <v>2698.92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>10</v>
       </c>
@@ -9166,7 +9185,7 @@
         <v>153.9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>10</v>
       </c>
@@ -9188,7 +9207,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>10</v>
       </c>
@@ -9210,7 +9229,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>10</v>
       </c>
@@ -9232,7 +9251,7 @@
         <v>1385.1000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>10</v>
       </c>
@@ -9254,7 +9273,7 @@
         <v>1462.05</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>10</v>
       </c>
@@ -9276,7 +9295,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>10</v>
       </c>
@@ -9298,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>10</v>
       </c>
@@ -9320,7 +9339,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>10</v>
       </c>
@@ -9342,7 +9361,7 @@
         <v>461.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>10</v>
       </c>
@@ -9364,7 +9383,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>10</v>
       </c>
@@ -9386,7 +9405,7 @@
         <v>2308.5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>10</v>
       </c>
@@ -9408,7 +9427,7 @@
         <v>404.55000000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>10</v>
       </c>
@@ -9430,7 +9449,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>10</v>
       </c>
@@ -9452,7 +9471,7 @@
         <v>485.46000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>10</v>
       </c>
@@ -9474,7 +9493,7 @@
         <v>1213.6500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>10</v>
       </c>
@@ -9496,7 +9515,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>10</v>
       </c>
@@ -9518,7 +9537,7 @@
         <v>323.64000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>10</v>
       </c>
@@ -9540,7 +9559,7 @@
         <v>1213.6500000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>10</v>
       </c>
@@ -9562,7 +9581,7 @@
         <v>161.82000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>10</v>
       </c>
@@ -9584,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>11</v>
       </c>
@@ -9606,7 +9625,7 @@
         <v>461.70000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>11</v>
       </c>
@@ -9628,7 +9647,7 @@
         <v>1154.25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
         <v>11</v>
       </c>
@@ -9650,7 +9669,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
         <v>11</v>
       </c>
@@ -9672,7 +9691,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>11</v>
       </c>
@@ -9694,7 +9713,7 @@
         <v>1462.05</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>11</v>
       </c>
@@ -9716,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>11</v>
       </c>
@@ -9738,7 +9757,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>11</v>
       </c>
@@ -9760,7 +9779,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>11</v>
       </c>
@@ -9782,7 +9801,7 @@
         <v>1462.05</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>11</v>
       </c>
@@ -9804,7 +9823,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
         <v>11</v>
       </c>
@@ -9826,7 +9845,7 @@
         <v>2000.7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>11</v>
       </c>
@@ -9848,7 +9867,7 @@
         <v>1699.1100000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>11</v>
       </c>
@@ -9870,7 +9889,7 @@
         <v>80.910000000000011</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>11</v>
       </c>
@@ -9892,7 +9911,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>11</v>
       </c>
@@ -9914,7 +9933,7 @@
         <v>1860.9300000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>11</v>
       </c>
@@ -9936,7 +9955,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>11</v>
       </c>
@@ -9958,7 +9977,7 @@
         <v>323.64000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>11</v>
       </c>
@@ -9980,7 +9999,7 @@
         <v>2022.7500000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>11</v>
       </c>
@@ -10002,7 +10021,7 @@
         <v>1294.5600000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>11</v>
       </c>
@@ -10024,7 +10043,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
         <v>9</v>
       </c>
@@ -10046,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
         <v>9</v>
       </c>
@@ -10068,7 +10087,7 @@
         <v>230.85000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
         <v>9</v>
       </c>
@@ -10090,7 +10109,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="21" t="s">
         <v>9</v>
       </c>
@@ -10112,7 +10131,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="21" t="s">
         <v>9</v>
       </c>
@@ -10134,7 +10153,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="21" t="s">
         <v>9</v>
       </c>
@@ -10156,7 +10175,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="21" t="s">
         <v>9</v>
       </c>
@@ -10178,7 +10197,7 @@
         <v>153.9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="21" t="s">
         <v>9</v>
       </c>
@@ -10200,7 +10219,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="21" t="s">
         <v>9</v>
       </c>
@@ -10222,7 +10241,7 @@
         <v>153.9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="21" t="s">
         <v>9</v>
       </c>
@@ -10244,7 +10263,7 @@
         <v>2000.7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="21" t="s">
         <v>9</v>
       </c>
@@ -10266,7 +10285,7 @@
         <v>1769.8500000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="24" t="s">
         <v>9</v>
       </c>
@@ -10288,7 +10307,7 @@
         <v>404.55000000000007</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="24" t="s">
         <v>9</v>
       </c>
@@ -10310,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="24" t="s">
         <v>9</v>
       </c>
@@ -10332,7 +10351,7 @@
         <v>2022.7500000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="24" t="s">
         <v>9</v>
       </c>
@@ -10354,7 +10373,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="24" t="s">
         <v>9</v>
       </c>
@@ -10376,7 +10395,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="24" t="s">
         <v>9</v>
       </c>
@@ -10398,7 +10417,7 @@
         <v>485.46000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="24" t="s">
         <v>9</v>
       </c>
@@ -10420,7 +10439,7 @@
         <v>323.64000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="24" t="s">
         <v>9</v>
       </c>
@@ -10442,7 +10461,7 @@
         <v>1699.1100000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="24" t="s">
         <v>9</v>
       </c>
@@ -10464,7 +10483,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
         <v>2</v>
@@ -10483,17 +10502,17 @@
         <v>96668.00999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="58">
+      <c r="C124" s="61">
         <v>0.1</v>
       </c>
-      <c r="D124" s="59"/>
-      <c r="E124" s="59"/>
-      <c r="F124" s="60"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="62"/>
+      <c r="F124" s="63"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F122">
@@ -10512,44 +10531,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBEA579-FDAC-42AF-B7B9-E3C9C283777C}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="65"/>
-    </row>
-    <row r="2" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="68"/>
+    </row>
+    <row r="2" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="45">
@@ -10613,8 +10632,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -10681,8 +10700,8 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
+    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="70"/>
       <c r="B4" s="50" t="s">
         <v>30</v>
       </c>
@@ -10695,7 +10714,7 @@
       <c r="E4" s="51">
         <v>3</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="52">
         <v>21</v>
       </c>
       <c r="G4" s="51">
@@ -10747,8 +10766,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="64" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="46" t="s">
@@ -10815,8 +10834,8 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
+    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="65"/>
       <c r="B6" s="50" t="s">
         <v>30</v>
       </c>
@@ -10881,8 +10900,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="64" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="46" t="s">
@@ -10949,8 +10968,8 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+    <row r="8" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="65"/>
       <c r="B8" s="50" t="s">
         <v>30</v>
       </c>
@@ -11015,8 +11034,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -11083,8 +11102,8 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
+    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="65"/>
       <c r="B10" s="50" t="s">
         <v>30</v>
       </c>
@@ -11103,7 +11122,7 @@
       <c r="G10" s="51">
         <v>19</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="51">
         <v>5</v>
       </c>
       <c r="I10" s="51">
@@ -11149,8 +11168,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+    <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -11217,8 +11236,8 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
+    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="65"/>
       <c r="B12" s="50" t="s">
         <v>30</v>
       </c>
@@ -11283,8 +11302,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+    <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="64" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="46" t="s">
@@ -11351,8 +11370,8 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+    <row r="14" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="65"/>
       <c r="B14" s="50" t="s">
         <v>30</v>
       </c>
@@ -11433,99 +11452,107 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C4FC4-DE5B-4DB6-99AD-796FEF13CBFD}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A3:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H1" s="72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H2" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>27</v>
       </c>
       <c r="B5">
-        <f>VLOOKUP(B3,'Produtos Infantis por Colunas'!A2:V14,6,FALSE)</f>
-        <v>79.8</v>
-      </c>
-      <c r="J5" s="71" t="s">
+        <f>HLOOKUP(B4,'Produtos Infantis por Colunas'!C2:V14,MATCH(B3,'Produtos Infantis por Colunas'!A2:A14,0)+1,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B8" t="e" cm="1">
+        <f t="array" ref="B8">p</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K9" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M11" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="N12" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="O12" s="54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="71" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M13" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="N13" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="O13" s="54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J7" s="71" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M14" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="N14" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="O14" s="54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H10" s="73" t="s">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K17" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I10" t="str">
-        <f>VLOOKUP("Valor 2",J4:L7,3,)</f>
+      <c r="L17" t="str">
+        <f>VLOOKUP("Valor 2",M11:O14,3,)</f>
         <v>2-2</v>
       </c>
     </row>
@@ -11541,26 +11568,26 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="72"/>
       <c r="E1" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
@@ -11572,7 +11599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
@@ -11584,14 +11611,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
       <c r="B4" s="31"/>
       <c r="E4" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
@@ -11603,7 +11630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
@@ -11615,14 +11642,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="28"/>
       <c r="B7" s="31"/>
       <c r="E7" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -11631,7 +11658,7 @@
         <v>8.7480000000000011</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>21</v>
       </c>
@@ -11640,7 +11667,7 @@
         <v>87.480000000000047</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>22</v>
       </c>
@@ -11649,7 +11676,7 @@
         <v>9.9999999999999964E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>23</v>
       </c>
@@ -11658,7 +11685,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
         <v>24</v>
       </c>
@@ -11688,17 +11715,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11706,7 +11733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -11714,8 +11741,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -11732,7 +11759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -11749,7 +11776,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -11766,7 +11793,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -11783,7 +11810,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -11800,7 +11827,7 @@
         <v>574.55999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -11817,7 +11844,7 @@
         <v>599.76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -11850,7 +11877,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11860,15 +11887,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DADAA82B37D6A34396C9A79382D322B2" ma:contentTypeVersion="7" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1793825d7b05ea3989becfa6f4c745dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44473e96-bad3-4ccd-b3db-2438e2abade5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="056e6b85bc79c915fb5c20b44a88eb3f" ns3:_="">
     <xsd:import namespace="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
@@ -12032,6 +12050,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -12039,14 +12066,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7555D2-3476-4E22-B89A-E5D91FD6531C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C2436EB-D1E1-4C0D-8AEC-B7617369AD05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12060,6 +12079,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7555D2-3476-4E22-B89A-E5D91FD6531C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Alura/formacaoDataScience/ExcelAndVBA/ExcelProcvLogicaBooleanaEBuscaPorValores/material-LUCAS.xlsx
+++ b/Alura/formacaoDataScience/ExcelAndVBA/ExcelProcvLogicaBooleanaEBuscaPorValores/material-LUCAS.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasSilvaDantasAbra\www\studySpace\Alura\formacaoDataScience\ExcelAndVBA\ExcelProcvLogicaBooleanaEBuscaPorValores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C897D3C-ED42-4CE1-A05C-27B25A416646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D834951B-7458-41BC-B241-4A3687591331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33210" yWindow="-2880" windowWidth="19425" windowHeight="10635" firstSheet="1" activeTab="2" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
+    <workbookView xWindow="26730" yWindow="5085" windowWidth="29040" windowHeight="15045" firstSheet="2" activeTab="3" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos Infantis" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Produtos Infantis por Colunas" sheetId="18" r:id="rId2"/>
     <sheet name="Procura em Estoque" sheetId="17" r:id="rId3"/>
-    <sheet name="Meus Números" sheetId="12" r:id="rId4"/>
-    <sheet name="Dados Filtrados" sheetId="11" state="hidden" r:id="rId5"/>
-    <sheet name="Gráficos" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="Resumo de Vendas" sheetId="19" r:id="rId4"/>
+    <sheet name="Meus Números" sheetId="12" r:id="rId5"/>
+    <sheet name="Dados Filtrados" sheetId="11" state="hidden" r:id="rId6"/>
+    <sheet name="Gráficos" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Produtos Infantis'!$A$2:$F$124</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="4">'Dados Filtrados'!$A$7:$E$7</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="3">'Meus Números'!$E$1</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="4">'Dados Filtrados'!$A$2:$B$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="5">'Dados Filtrados'!$A$7:$E$7</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">'Meus Números'!$E$1</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">'Dados Filtrados'!$A$2:$B$3</definedName>
     <definedName name="Descontos" localSheetId="1">'[1]Produtos Infantis'!$D$3:$D$122</definedName>
     <definedName name="Descontos">'Produtos Infantis'!$D$3:$D$122</definedName>
     <definedName name="Descrição" localSheetId="1">'[1]Produtos Infantis'!$A$3:$A$122</definedName>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="59">
   <si>
     <t>Tamanho</t>
   </si>
@@ -160,9 +161,6 @@
     <t>Tamanho:</t>
   </si>
   <si>
-    <t>Quantidade:</t>
-  </si>
-  <si>
     <t>Tamanhos</t>
   </si>
   <si>
@@ -213,6 +211,51 @@
   <si>
     <t>Coluna 3</t>
   </si>
+  <si>
+    <t>corresp  produto</t>
+  </si>
+  <si>
+    <t>corresp tamanho</t>
+  </si>
+  <si>
+    <t>Qtd Estoque:</t>
+  </si>
+  <si>
+    <t>Qtd Compra:</t>
+  </si>
+  <si>
+    <t>Desconto:</t>
+  </si>
+  <si>
+    <t>Descontos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir de </t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Valor total:</t>
+  </si>
+  <si>
+    <t>Resumo de Venda</t>
+  </si>
+  <si>
+    <t>Valor Final:</t>
+  </si>
+  <si>
+    <t>Finalizar Pedido</t>
+  </si>
+  <si>
+    <t>Comprador Cadastrado:</t>
+  </si>
+  <si>
+    <t>Primeira Compra:</t>
+  </si>
+  <si>
+    <t>Apenas um Par:</t>
+  </si>
 </sst>
 </file>
 
@@ -221,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +362,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,30 +422,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6F61A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -720,13 +813,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -833,17 +947,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,7 +966,7 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,10 +978,31 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,14 +1048,212 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE6F61A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7814,14 +8144,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -10507,12 +10837,12 @@
       <c r="B124" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="61">
+      <c r="C124" s="72">
         <v>0.1</v>
       </c>
-      <c r="D124" s="62"/>
-      <c r="E124" s="62"/>
-      <c r="F124" s="63"/>
+      <c r="D124" s="73"/>
+      <c r="E124" s="73"/>
+      <c r="F124" s="74"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F122">
@@ -10531,7 +10861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBEA579-FDAC-42AF-B7B9-E3C9C283777C}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -10543,896 +10873,896 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="79"/>
+    </row>
+    <row r="2" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44">
+        <v>17</v>
+      </c>
+      <c r="D2" s="44">
+        <v>18</v>
+      </c>
+      <c r="E2" s="44">
+        <v>19</v>
+      </c>
+      <c r="F2" s="44">
+        <v>20</v>
+      </c>
+      <c r="G2" s="44">
+        <v>21</v>
+      </c>
+      <c r="H2" s="44">
+        <v>22</v>
+      </c>
+      <c r="I2" s="44">
+        <v>23</v>
+      </c>
+      <c r="J2" s="44">
+        <v>24</v>
+      </c>
+      <c r="K2" s="44">
+        <v>25</v>
+      </c>
+      <c r="L2" s="44">
+        <v>26</v>
+      </c>
+      <c r="M2" s="44">
+        <v>27</v>
+      </c>
+      <c r="N2" s="44">
         <v>28</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="68"/>
-    </row>
-    <row r="2" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45">
+      <c r="O2" s="44">
+        <v>29</v>
+      </c>
+      <c r="P2" s="44">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="44">
+        <v>31</v>
+      </c>
+      <c r="R2" s="44">
+        <v>32</v>
+      </c>
+      <c r="S2" s="44">
+        <v>33</v>
+      </c>
+      <c r="T2" s="44">
+        <v>34</v>
+      </c>
+      <c r="U2" s="44">
+        <v>35</v>
+      </c>
+      <c r="V2" s="44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="D3" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="E3" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="F3" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="G3" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="H3" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="I3" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="J3" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="K3" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="L3" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="M3" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="N3" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="O3" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="P3" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="Q3" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="R3" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="S3" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="T3" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="U3" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="V3" s="48">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="81"/>
+      <c r="B4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="50">
+        <v>15</v>
+      </c>
+      <c r="D4" s="51">
+        <v>0</v>
+      </c>
+      <c r="E4" s="50">
+        <v>3</v>
+      </c>
+      <c r="F4" s="51">
+        <v>21</v>
+      </c>
+      <c r="G4" s="50">
+        <v>12</v>
+      </c>
+      <c r="H4" s="51">
+        <v>5</v>
+      </c>
+      <c r="I4" s="50">
+        <v>8</v>
+      </c>
+      <c r="J4" s="51">
+        <v>23</v>
+      </c>
+      <c r="K4" s="50">
+        <v>15</v>
+      </c>
+      <c r="L4" s="51">
+        <v>25</v>
+      </c>
+      <c r="M4" s="50">
+        <v>2</v>
+      </c>
+      <c r="N4" s="51">
+        <v>8</v>
+      </c>
+      <c r="O4" s="50">
+        <v>7</v>
+      </c>
+      <c r="P4" s="51">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="50">
+        <v>20</v>
+      </c>
+      <c r="R4" s="51">
+        <v>0</v>
+      </c>
+      <c r="S4" s="50">
+        <v>0</v>
+      </c>
+      <c r="T4" s="51">
+        <v>6</v>
+      </c>
+      <c r="U4" s="50">
+        <v>8</v>
+      </c>
+      <c r="V4" s="52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="D5" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="E5" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="F5" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="G5" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="H5" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="I5" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="J5" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="K5" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="L5" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="M5" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="N5" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="O5" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="P5" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="Q5" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="R5" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="S5" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="T5" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="U5" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="V5" s="48">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="76"/>
+      <c r="B6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="50">
         <v>17</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D6" s="51">
+        <v>15</v>
+      </c>
+      <c r="E6" s="50">
+        <v>2</v>
+      </c>
+      <c r="F6" s="51">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <v>6</v>
+      </c>
+      <c r="J6" s="51">
+        <v>8</v>
+      </c>
+      <c r="K6" s="50">
+        <v>9</v>
+      </c>
+      <c r="L6" s="51">
+        <v>15</v>
+      </c>
+      <c r="M6" s="50">
         <v>18</v>
       </c>
-      <c r="E2" s="45">
+      <c r="N6" s="51">
+        <v>18</v>
+      </c>
+      <c r="O6" s="50">
+        <v>2</v>
+      </c>
+      <c r="P6" s="51">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>6</v>
+      </c>
+      <c r="R6" s="51">
+        <v>0</v>
+      </c>
+      <c r="S6" s="50">
+        <v>5</v>
+      </c>
+      <c r="T6" s="51">
         <v>19</v>
       </c>
-      <c r="F2" s="45">
-        <v>20</v>
-      </c>
-      <c r="G2" s="45">
+      <c r="U6" s="50">
+        <v>26</v>
+      </c>
+      <c r="V6" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="D7" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="E7" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="F7" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="G7" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="H7" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="I7" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="J7" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="K7" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="L7" s="47">
+        <v>79.8</v>
+      </c>
+      <c r="M7" s="46">
+        <v>79.8</v>
+      </c>
+      <c r="N7" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="O7" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="P7" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="R7" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="S7" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="T7" s="47">
+        <v>83.3</v>
+      </c>
+      <c r="U7" s="46">
+        <v>83.3</v>
+      </c>
+      <c r="V7" s="48">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="76"/>
+      <c r="B8" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="50">
+        <v>25</v>
+      </c>
+      <c r="D8" s="51">
+        <v>2</v>
+      </c>
+      <c r="E8" s="50">
+        <v>3</v>
+      </c>
+      <c r="F8" s="51">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51">
+        <v>5</v>
+      </c>
+      <c r="I8" s="50">
+        <v>16</v>
+      </c>
+      <c r="J8" s="51">
+        <v>15</v>
+      </c>
+      <c r="K8" s="50">
+        <v>16</v>
+      </c>
+      <c r="L8" s="51">
+        <v>14</v>
+      </c>
+      <c r="M8" s="50">
+        <v>15</v>
+      </c>
+      <c r="N8" s="51">
+        <v>29</v>
+      </c>
+      <c r="O8" s="50">
+        <v>5</v>
+      </c>
+      <c r="P8" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="50">
+        <v>4</v>
+      </c>
+      <c r="R8" s="51">
+        <v>5</v>
+      </c>
+      <c r="S8" s="50">
+        <v>15</v>
+      </c>
+      <c r="T8" s="51">
+        <v>16</v>
+      </c>
+      <c r="U8" s="50">
+        <v>2</v>
+      </c>
+      <c r="V8" s="52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="D9" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="E9" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="F9" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="G9" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="H9" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="I9" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="J9" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="K9" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="L9" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="M9" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="N9" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="O9" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="P9" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="Q9" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="R9" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="S9" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="T9" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="U9" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="V9" s="48">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="76"/>
+      <c r="B10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="50">
+        <v>2</v>
+      </c>
+      <c r="D10" s="51">
+        <v>5</v>
+      </c>
+      <c r="E10" s="50">
+        <v>16</v>
+      </c>
+      <c r="F10" s="51">
+        <v>18</v>
+      </c>
+      <c r="G10" s="50">
+        <v>19</v>
+      </c>
+      <c r="H10" s="50">
+        <v>5</v>
+      </c>
+      <c r="I10" s="50">
+        <v>0</v>
+      </c>
+      <c r="J10" s="51">
+        <v>25</v>
+      </c>
+      <c r="K10" s="50">
+        <v>6</v>
+      </c>
+      <c r="L10" s="51">
+        <v>8</v>
+      </c>
+      <c r="M10" s="50">
+        <v>30</v>
+      </c>
+      <c r="N10" s="51">
+        <v>5</v>
+      </c>
+      <c r="O10" s="50">
+        <v>8</v>
+      </c>
+      <c r="P10" s="51">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>15</v>
+      </c>
+      <c r="R10" s="51">
+        <v>8</v>
+      </c>
+      <c r="S10" s="50">
+        <v>4</v>
+      </c>
+      <c r="T10" s="51">
+        <v>15</v>
+      </c>
+      <c r="U10" s="50">
+        <v>2</v>
+      </c>
+      <c r="V10" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="D11" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="E11" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="F11" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="G11" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="H11" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="I11" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="J11" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="K11" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="L11" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="M11" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="N11" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="O11" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="P11" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="R11" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="S11" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="T11" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="U11" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="V11" s="48">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="76"/>
+      <c r="B12" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="50">
+        <v>6</v>
+      </c>
+      <c r="D12" s="51">
+        <v>15</v>
+      </c>
+      <c r="E12" s="50">
+        <v>25</v>
+      </c>
+      <c r="F12" s="51">
+        <v>16</v>
+      </c>
+      <c r="G12" s="50">
+        <v>19</v>
+      </c>
+      <c r="H12" s="51">
+        <v>0</v>
+      </c>
+      <c r="I12" s="50">
+        <v>5</v>
+      </c>
+      <c r="J12" s="51">
+        <v>16</v>
+      </c>
+      <c r="K12" s="50">
+        <v>19</v>
+      </c>
+      <c r="L12" s="51">
+        <v>25</v>
+      </c>
+      <c r="M12" s="50">
+        <v>26</v>
+      </c>
+      <c r="N12" s="51">
         <v>21</v>
       </c>
-      <c r="H2" s="45">
-        <v>22</v>
-      </c>
-      <c r="I2" s="45">
+      <c r="O12" s="50">
+        <v>1</v>
+      </c>
+      <c r="P12" s="51">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="50">
         <v>23</v>
       </c>
-      <c r="J2" s="45">
-        <v>24</v>
-      </c>
-      <c r="K2" s="45">
+      <c r="R12" s="51">
+        <v>8</v>
+      </c>
+      <c r="S12" s="50">
+        <v>4</v>
+      </c>
+      <c r="T12" s="51">
         <v>25</v>
       </c>
-      <c r="L2" s="45">
+      <c r="U12" s="50">
+        <v>16</v>
+      </c>
+      <c r="V12" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="D13" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="E13" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="F13" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="G13" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="H13" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="I13" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="J13" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="K13" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="L13" s="47">
+        <v>85.5</v>
+      </c>
+      <c r="M13" s="46">
+        <v>85.5</v>
+      </c>
+      <c r="N13" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="O13" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="P13" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="R13" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="S13" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="T13" s="47">
+        <v>89.9</v>
+      </c>
+      <c r="U13" s="46">
+        <v>89.9</v>
+      </c>
+      <c r="V13" s="48">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="76"/>
+      <c r="B14" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="50">
+        <v>0</v>
+      </c>
+      <c r="D14" s="51">
+        <v>3</v>
+      </c>
+      <c r="E14" s="50">
+        <v>8</v>
+      </c>
+      <c r="F14" s="51">
+        <v>16</v>
+      </c>
+      <c r="G14" s="50">
+        <v>5</v>
+      </c>
+      <c r="H14" s="51">
+        <v>8</v>
+      </c>
+      <c r="I14" s="50">
+        <v>2</v>
+      </c>
+      <c r="J14" s="51">
+        <v>25</v>
+      </c>
+      <c r="K14" s="50">
+        <v>2</v>
+      </c>
+      <c r="L14" s="51">
         <v>26</v>
       </c>
-      <c r="M2" s="45">
-        <v>27</v>
-      </c>
-      <c r="N2" s="45">
-        <v>28</v>
-      </c>
-      <c r="O2" s="45">
-        <v>29</v>
-      </c>
-      <c r="P2" s="45">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="45">
-        <v>31</v>
-      </c>
-      <c r="R2" s="45">
-        <v>32</v>
-      </c>
-      <c r="S2" s="45">
-        <v>33</v>
-      </c>
-      <c r="T2" s="45">
-        <v>34</v>
-      </c>
-      <c r="U2" s="45">
-        <v>35</v>
-      </c>
-      <c r="V2" s="45">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="D3" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="E3" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="F3" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="G3" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="H3" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="I3" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="J3" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="K3" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="L3" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="M3" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="N3" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="O3" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="P3" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="Q3" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="R3" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="S3" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="T3" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="U3" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="V3" s="49">
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="70"/>
-      <c r="B4" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="51">
-        <v>15</v>
-      </c>
-      <c r="D4" s="52">
+      <c r="M14" s="50">
+        <v>23</v>
+      </c>
+      <c r="N14" s="51">
+        <v>5</v>
+      </c>
+      <c r="O14" s="50">
         <v>0</v>
       </c>
-      <c r="E4" s="51">
+      <c r="P14" s="51">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="50">
+        <v>8</v>
+      </c>
+      <c r="R14" s="51">
         <v>3</v>
       </c>
-      <c r="F4" s="52">
+      <c r="S14" s="50">
+        <v>6</v>
+      </c>
+      <c r="T14" s="51">
+        <v>4</v>
+      </c>
+      <c r="U14" s="50">
         <v>21</v>
       </c>
-      <c r="G4" s="51">
-        <v>12</v>
-      </c>
-      <c r="H4" s="52">
-        <v>5</v>
-      </c>
-      <c r="I4" s="51">
-        <v>8</v>
-      </c>
-      <c r="J4" s="52">
-        <v>23</v>
-      </c>
-      <c r="K4" s="51">
-        <v>15</v>
-      </c>
-      <c r="L4" s="52">
-        <v>25</v>
-      </c>
-      <c r="M4" s="51">
-        <v>2</v>
-      </c>
-      <c r="N4" s="52">
-        <v>8</v>
-      </c>
-      <c r="O4" s="51">
-        <v>7</v>
-      </c>
-      <c r="P4" s="52">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="51">
-        <v>20</v>
-      </c>
-      <c r="R4" s="52">
-        <v>0</v>
-      </c>
-      <c r="S4" s="51">
-        <v>0</v>
-      </c>
-      <c r="T4" s="52">
-        <v>6</v>
-      </c>
-      <c r="U4" s="51">
-        <v>8</v>
-      </c>
-      <c r="V4" s="53">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="D5" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="E5" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="F5" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="G5" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="H5" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="I5" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="J5" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="K5" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="L5" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="M5" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="N5" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="O5" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="P5" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="Q5" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="R5" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="S5" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="T5" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="U5" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="V5" s="49">
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="65"/>
-      <c r="B6" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="51">
-        <v>17</v>
-      </c>
-      <c r="D6" s="52">
-        <v>15</v>
-      </c>
-      <c r="E6" s="51">
-        <v>2</v>
-      </c>
-      <c r="F6" s="52">
-        <v>1</v>
-      </c>
-      <c r="G6" s="51">
-        <v>0</v>
-      </c>
-      <c r="H6" s="52">
-        <v>0</v>
-      </c>
-      <c r="I6" s="51">
-        <v>6</v>
-      </c>
-      <c r="J6" s="52">
-        <v>8</v>
-      </c>
-      <c r="K6" s="51">
-        <v>9</v>
-      </c>
-      <c r="L6" s="52">
-        <v>15</v>
-      </c>
-      <c r="M6" s="51">
-        <v>18</v>
-      </c>
-      <c r="N6" s="52">
-        <v>18</v>
-      </c>
-      <c r="O6" s="51">
-        <v>2</v>
-      </c>
-      <c r="P6" s="52">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="51">
-        <v>6</v>
-      </c>
-      <c r="R6" s="52">
-        <v>0</v>
-      </c>
-      <c r="S6" s="51">
-        <v>5</v>
-      </c>
-      <c r="T6" s="52">
-        <v>19</v>
-      </c>
-      <c r="U6" s="51">
-        <v>26</v>
-      </c>
-      <c r="V6" s="53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="D7" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="E7" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="F7" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="G7" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="H7" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="I7" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="J7" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="K7" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="L7" s="48">
-        <v>79.8</v>
-      </c>
-      <c r="M7" s="47">
-        <v>79.8</v>
-      </c>
-      <c r="N7" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="O7" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="P7" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="Q7" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="R7" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="S7" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="T7" s="48">
-        <v>83.3</v>
-      </c>
-      <c r="U7" s="47">
-        <v>83.3</v>
-      </c>
-      <c r="V7" s="49">
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="65"/>
-      <c r="B8" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="51">
-        <v>25</v>
-      </c>
-      <c r="D8" s="52">
-        <v>2</v>
-      </c>
-      <c r="E8" s="51">
-        <v>3</v>
-      </c>
-      <c r="F8" s="52">
-        <v>1</v>
-      </c>
-      <c r="G8" s="51">
-        <v>0</v>
-      </c>
-      <c r="H8" s="52">
-        <v>5</v>
-      </c>
-      <c r="I8" s="51">
-        <v>16</v>
-      </c>
-      <c r="J8" s="52">
-        <v>15</v>
-      </c>
-      <c r="K8" s="51">
-        <v>16</v>
-      </c>
-      <c r="L8" s="52">
-        <v>14</v>
-      </c>
-      <c r="M8" s="51">
-        <v>15</v>
-      </c>
-      <c r="N8" s="52">
-        <v>29</v>
-      </c>
-      <c r="O8" s="51">
-        <v>5</v>
-      </c>
-      <c r="P8" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="51">
-        <v>4</v>
-      </c>
-      <c r="R8" s="52">
-        <v>5</v>
-      </c>
-      <c r="S8" s="51">
-        <v>15</v>
-      </c>
-      <c r="T8" s="52">
-        <v>16</v>
-      </c>
-      <c r="U8" s="51">
-        <v>2</v>
-      </c>
-      <c r="V8" s="53">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="D9" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="E9" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="F9" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="G9" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="H9" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="I9" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="J9" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="K9" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="L9" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="M9" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="N9" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="O9" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="P9" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="Q9" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="R9" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="S9" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="T9" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="U9" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="V9" s="49">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="65"/>
-      <c r="B10" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="51">
-        <v>2</v>
-      </c>
-      <c r="D10" s="52">
-        <v>5</v>
-      </c>
-      <c r="E10" s="51">
-        <v>16</v>
-      </c>
-      <c r="F10" s="52">
-        <v>18</v>
-      </c>
-      <c r="G10" s="51">
-        <v>19</v>
-      </c>
-      <c r="H10" s="51">
-        <v>5</v>
-      </c>
-      <c r="I10" s="51">
-        <v>0</v>
-      </c>
-      <c r="J10" s="52">
-        <v>25</v>
-      </c>
-      <c r="K10" s="51">
-        <v>6</v>
-      </c>
-      <c r="L10" s="52">
-        <v>8</v>
-      </c>
-      <c r="M10" s="51">
-        <v>30</v>
-      </c>
-      <c r="N10" s="52">
-        <v>5</v>
-      </c>
-      <c r="O10" s="51">
-        <v>8</v>
-      </c>
-      <c r="P10" s="52">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="51">
-        <v>15</v>
-      </c>
-      <c r="R10" s="52">
-        <v>8</v>
-      </c>
-      <c r="S10" s="51">
-        <v>4</v>
-      </c>
-      <c r="T10" s="52">
-        <v>15</v>
-      </c>
-      <c r="U10" s="51">
-        <v>2</v>
-      </c>
-      <c r="V10" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="D11" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="E11" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="F11" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="G11" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="H11" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="I11" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="J11" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="K11" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="L11" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="M11" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="N11" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="O11" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="P11" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="Q11" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="R11" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="S11" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="T11" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="U11" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="V11" s="49">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="65"/>
-      <c r="B12" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="51">
-        <v>6</v>
-      </c>
-      <c r="D12" s="52">
-        <v>15</v>
-      </c>
-      <c r="E12" s="51">
-        <v>25</v>
-      </c>
-      <c r="F12" s="52">
-        <v>16</v>
-      </c>
-      <c r="G12" s="51">
-        <v>19</v>
-      </c>
-      <c r="H12" s="52">
-        <v>0</v>
-      </c>
-      <c r="I12" s="51">
-        <v>5</v>
-      </c>
-      <c r="J12" s="52">
-        <v>16</v>
-      </c>
-      <c r="K12" s="51">
-        <v>19</v>
-      </c>
-      <c r="L12" s="52">
-        <v>25</v>
-      </c>
-      <c r="M12" s="51">
-        <v>26</v>
-      </c>
-      <c r="N12" s="52">
-        <v>21</v>
-      </c>
-      <c r="O12" s="51">
-        <v>1</v>
-      </c>
-      <c r="P12" s="52">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="51">
-        <v>23</v>
-      </c>
-      <c r="R12" s="52">
-        <v>8</v>
-      </c>
-      <c r="S12" s="51">
-        <v>4</v>
-      </c>
-      <c r="T12" s="52">
-        <v>25</v>
-      </c>
-      <c r="U12" s="51">
-        <v>16</v>
-      </c>
-      <c r="V12" s="53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="D13" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="E13" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="F13" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="G13" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="H13" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="I13" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="J13" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="K13" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="L13" s="48">
-        <v>85.5</v>
-      </c>
-      <c r="M13" s="47">
-        <v>85.5</v>
-      </c>
-      <c r="N13" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="O13" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="P13" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="Q13" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="R13" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="S13" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="T13" s="48">
-        <v>89.9</v>
-      </c>
-      <c r="U13" s="47">
-        <v>89.9</v>
-      </c>
-      <c r="V13" s="49">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="65"/>
-      <c r="B14" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="51">
-        <v>0</v>
-      </c>
-      <c r="D14" s="52">
-        <v>3</v>
-      </c>
-      <c r="E14" s="51">
-        <v>8</v>
-      </c>
-      <c r="F14" s="52">
-        <v>16</v>
-      </c>
-      <c r="G14" s="51">
-        <v>5</v>
-      </c>
-      <c r="H14" s="52">
-        <v>8</v>
-      </c>
-      <c r="I14" s="51">
-        <v>2</v>
-      </c>
-      <c r="J14" s="52">
-        <v>25</v>
-      </c>
-      <c r="K14" s="51">
-        <v>2</v>
-      </c>
-      <c r="L14" s="52">
-        <v>26</v>
-      </c>
-      <c r="M14" s="51">
-        <v>23</v>
-      </c>
-      <c r="N14" s="52">
-        <v>5</v>
-      </c>
-      <c r="O14" s="51">
-        <v>0</v>
-      </c>
-      <c r="P14" s="52">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="51">
-        <v>8</v>
-      </c>
-      <c r="R14" s="52">
-        <v>3</v>
-      </c>
-      <c r="S14" s="51">
-        <v>6</v>
-      </c>
-      <c r="T14" s="52">
-        <v>4</v>
-      </c>
-      <c r="U14" s="51">
-        <v>21</v>
-      </c>
-      <c r="V14" s="53">
+      <c r="V14" s="52">
         <v>3</v>
       </c>
     </row>
@@ -11452,118 +11782,803 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C4FC4-DE5B-4DB6-99AD-796FEF13CBFD}">
-  <dimension ref="A3:O17"/>
+  <dimension ref="B1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="2.26953125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="1.453125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" style="53" customWidth="1"/>
+    <col min="6" max="8" width="1.453125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="6.36328125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" style="53" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="53" customWidth="1"/>
+    <col min="12" max="12" width="2.453125" style="53" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" style="53" customWidth="1"/>
+    <col min="14" max="14" width="2.26953125" style="53" customWidth="1"/>
+    <col min="15" max="15" width="2.08984375" style="53" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" style="53" customWidth="1"/>
+    <col min="17" max="17" width="10" style="53" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="53"/>
+    <col min="19" max="19" width="8.7265625" style="53" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="53"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+    <row r="1" spans="2:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:19" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="68" t="str">
+        <f>IF(E8=0,"Produto Esgotado",IF(E8&lt;=4,"Estoque Baixo",""))</f>
+        <v/>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="J3" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="86"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="55"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
+      <c r="E4" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="62"/>
+    </row>
+    <row r="5" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="55"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="62"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="97">
+        <v>0</v>
+      </c>
+      <c r="M5" s="98">
+        <v>0</v>
+      </c>
+      <c r="N5" s="62"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="97">
+        <v>0</v>
+      </c>
+      <c r="R5" s="99">
+        <v>0</v>
+      </c>
+      <c r="S5" s="62"/>
+    </row>
+    <row r="6" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="55"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <f>HLOOKUP(B4,'Produtos Infantis por Colunas'!C2:V14,MATCH(B3,'Produtos Infantis por Colunas'!A2:A14,0)+1,FALSE)</f>
+      <c r="E6" s="65">
+        <v>21</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="92">
+        <v>2</v>
+      </c>
+      <c r="M6" s="91">
+        <v>0.05</v>
+      </c>
+      <c r="N6" s="62"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="93">
+        <v>150</v>
+      </c>
+      <c r="R6" s="91">
+        <v>0.08</v>
+      </c>
+      <c r="S6" s="62"/>
+    </row>
+    <row r="7" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="55"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="62"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="62"/>
+    </row>
+    <row r="8" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="55"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="115">
+        <f>IFERROR(HLOOKUP(E6,'Produtos Infantis por Colunas'!C2:V14,MATCH(E4,'Produtos Infantis por Colunas'!A2:A14,0)+1,FALSE), "Produto não encontrado!")</f>
+        <v>12</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="92">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" t="e" cm="1">
-        <f t="array" ref="B8">p</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K8" s="56" t="s">
+      <c r="M8" s="91">
+        <v>0.09</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="93">
+        <v>300</v>
+      </c>
+      <c r="R8" s="91">
+        <v>0.15</v>
+      </c>
+      <c r="S8" s="62"/>
+    </row>
+    <row r="9" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="55"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="62"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="62"/>
+    </row>
+    <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="55"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="95">
+        <v>2</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="64"/>
+    </row>
+    <row r="11" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="55"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="62"/>
+    </row>
+    <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="55"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="118">
+        <f>IF(VLOOKUP(E10,L5:M8,2,1) &gt; VLOOKUP(E14,Q5:R8,2,1), VLOOKUP(E10,L5:M8,2,1), VLOOKUP(E14,Q5:R8,2,1))</f>
+        <v>0.08</v>
+      </c>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="55"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="62"/>
+    </row>
+    <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="55"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="116" cm="1">
+        <f t="array" ref="E14">IFERROR(INDEX('Produtos Infantis por Colunas'!C3:V14,D17,E17)*E10, "   Produto não encontrado!")</f>
+        <v>159.6</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="J14" s="96"/>
+      <c r="M14" s="96"/>
+    </row>
+    <row r="15" spans="2:19" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="55"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="97" t="e">
+        <f>MATCH(E3,'Produtos Infantis por Colunas'!A2:A13,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="97" t="e">
+        <f>MATCH(E5,'Produtos Infantis por Colunas'!C1:V1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="62"/>
+    </row>
+    <row r="16" spans="2:19" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="55"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="97"/>
+      <c r="F16" s="62"/>
+    </row>
+    <row r="17" spans="2:19" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="55"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="67">
+        <f>MATCH(E4,'Produtos Infantis por Colunas'!A3:A14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="67">
+        <f>MATCH(E6,'Produtos Infantis por Colunas'!C2:V2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="64"/>
+    </row>
+    <row r="18" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="2:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+    </row>
+    <row r="39" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="S39" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="S40" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="U42" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="V42" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="W42" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="U43" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="V43" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="W43" s="54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="U44" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="V44" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="W44" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="U45" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="V45" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="W45" s="54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D47" s="53">
+        <f ca="1">OFFSET('Produtos Infantis por Colunas'!B2,MATCH(E4,'Produtos Infantis por Colunas'!A3:A14,0),MATCH(E6,'Produtos Infantis por Colunas'!C2:V2,0))</f>
+        <v>79.8</v>
+      </c>
+      <c r="I47" s="53">
+        <f>HLOOKUP(E6,'Produtos Infantis por Colunas'!C2:V14,MATCH(E4,'Produtos Infantis por Colunas'!A2:A14,0)+1,FALSE)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="S48" s="53" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="K9" s="55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M11" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="56" t="s">
+      <c r="T48" s="53" t="str">
+        <f>VLOOKUP("Valor 2",U42:W45,3,)</f>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I52" s="53" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M12" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M13" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M14" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K17" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" t="str">
-        <f>VLOOKUP("Valor 2",M11:O14,3,)</f>
-        <v>2-2</v>
+      <c r="J52" s="66">
+        <f>MATCH(E4,'Produtos Infantis por Colunas'!A3:A14,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I53" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" s="66">
+        <f>MATCH(E6,'Produtos Infantis por Colunas'!C2:V2,0)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="K4:M4"/>
+  </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$E$8=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Quantidade Inválida" error="A quantidade de compra deve ser menor ou igual a quantidade em estoque" sqref="E10 M10 R10" xr:uid="{67BF85EA-8957-4BE0-8F0D-24EF35069AFB}">
+      <formula1>E10&lt;=E8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D16" location="'Resumo de Vendas'!A1" display="Finalizar Pedido" xr:uid="{B02A9DB3-38BE-44E4-AA39-96315DCF7599}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D15:E15" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F598E37F-66EF-4A8B-B459-46039E961AB0}">
+  <dimension ref="B1:AC45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.453125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="1.6328125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="1.453125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" style="53" customWidth="1"/>
+    <col min="6" max="8" width="1.453125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="1.6328125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="1.453125" style="53" customWidth="1"/>
+    <col min="11" max="11" width="20" style="53" customWidth="1"/>
+    <col min="12" max="12" width="25.54296875" style="53" customWidth="1"/>
+    <col min="13" max="14" width="1.453125" style="53" customWidth="1"/>
+    <col min="15" max="15" width="6.36328125" style="53" customWidth="1"/>
+    <col min="16" max="16" width="5.54296875" style="53" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" style="53" customWidth="1"/>
+    <col min="18" max="18" width="2.453125" style="53" customWidth="1"/>
+    <col min="19" max="19" width="17.36328125" style="53" customWidth="1"/>
+    <col min="20" max="20" width="2.26953125" style="53" customWidth="1"/>
+    <col min="21" max="21" width="2.08984375" style="53" customWidth="1"/>
+    <col min="22" max="22" width="9.7265625" style="53" customWidth="1"/>
+    <col min="23" max="23" width="10" style="53" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="53"/>
+    <col min="25" max="25" width="8.7265625" style="53" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:25" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="55"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="117" t="str">
+        <f>'Procura em Estoque'!E4</f>
+        <v>Tênis Infantil Atitas Azul</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="62"/>
+    </row>
+    <row r="5" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="55"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+    </row>
+    <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="55"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="115">
+        <f>'Procura em Estoque'!E10</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="62"/>
+    </row>
+    <row r="7" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="55"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+    </row>
+    <row r="8" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="55"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="116">
+        <f>'Procura em Estoque'!E14-'Procura em Estoque'!E14*'Procura em Estoque'!E12</f>
+        <v>146.83199999999999</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="105" t="b">
+        <f>E6=1</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="62"/>
+    </row>
+    <row r="9" spans="2:25" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="55"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="67">
+        <f>MATCH(E4,'Produtos Infantis por Colunas'!A3:A14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="100" t="e">
+        <f>MATCH(#REF!,'Produtos Infantis por Colunas'!C2:V2,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="67" t="e">
+        <f>MATCH(L4,'Produtos Infantis por Colunas'!H3:H14,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="100" t="e">
+        <f>MATCH(#REF!,'Produtos Infantis por Colunas'!J2:AC2,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="64"/>
+    </row>
+    <row r="10" spans="2:25" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D14" s="106" t="str" cm="1">
+        <f t="array" ref="D14">_xlfn.IFS(NOT(L4),"Cadastrar Comprador",L6,"Fechar Pedido",AND(L4,L8),"Oferecer Mais Produtos",TRUE,"Fechar Pedido")</f>
+        <v>Fechar Pedido</v>
+      </c>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="108"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="111"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="111"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+    </row>
+    <row r="17" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="114"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+    </row>
+    <row r="31" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="Y31" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="Y32" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="AA34" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB34" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC34" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="AA35" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB35" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC35" s="54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="AA36" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB36" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC36" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="AA37" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB37" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC37" s="54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="D39" s="53" t="e">
+        <f ca="1">OFFSET('Produtos Infantis por Colunas'!B2,MATCH(E4,'Produtos Infantis por Colunas'!A3:A14,0),MATCH(#REF!,'Produtos Infantis por Colunas'!C2:V2,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K39" s="53" t="e">
+        <f ca="1">OFFSET('Produtos Infantis por Colunas'!I2,MATCH(L4,'Produtos Infantis por Colunas'!H3:H14,0),MATCH(#REF!,'Produtos Infantis por Colunas'!J2:AC2,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O39" s="53" t="e">
+        <f>HLOOKUP(#REF!,'Produtos Infantis por Colunas'!C2:V14,MATCH(E4,'Produtos Infantis por Colunas'!A2:A14,0)+1,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="Y40" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z40" s="53" t="str">
+        <f>VLOOKUP("Valor 2",AA34:AC37,3,)</f>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="O44" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P44" s="66">
+        <f>MATCH(E4,'Produtos Infantis por Colunas'!A3:A14,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:29" x14ac:dyDescent="0.35">
+      <c r="O45" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45" s="66" t="e">
+        <f>MATCH(#REF!,'Produtos Infantis por Colunas'!C2:V2,0)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="D14:L17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>#REF!=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 L6" xr:uid="{B01A8D3E-BAA1-4867-92AD-17B569FFD663}">
+      <formula1>"VERDADEIRO,FALSO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E9" evalError="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2B2633-A280-45BF-A0F7-53144438DFDE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -11579,10 +12594,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="83"/>
       <c r="E1" s="34" t="s">
         <v>17</v>
       </c>
@@ -11707,7 +12722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735C81DD-D1F9-46D0-8C3D-BD391ADA92E1}">
   <dimension ref="A2:E13"/>
   <sheetViews>
@@ -11866,7 +12881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49322E16-DEEA-456D-9CAD-DFD8833691C2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
